--- a/Annex 1 SnapSat_Overview_Spreadsheet.xlsx
+++ b/Annex 1 SnapSat_Overview_Spreadsheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\AERO3760-Space-Engineering-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasforbutt/AERO3760-Space-Engineering-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="23920" windowHeight="15320" tabRatio="740" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23920" windowHeight="14280" tabRatio="740" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CubeSat Design Summary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Link Budget (Uplink)" sheetId="6" r:id="rId5"/>
     <sheet name="Link Budget (Downlink)" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="275">
   <si>
     <t>Attitude Determination and Control Subsystem</t>
   </si>
@@ -923,12 +923,376 @@
   <si>
     <t>http://www.l-com.com/wireless-antenna-900-mhz-5dbi-rubber-duck-antenna-rp-sma-plug-connector#</t>
   </si>
+  <si>
+    <t>Information on the System</t>
+  </si>
+  <si>
+    <t>Transmitter - Ground Station</t>
+  </si>
+  <si>
+    <t>Receiver - SnapSat</t>
+  </si>
+  <si>
+    <t>Orbit Altitude – 350km</t>
+  </si>
+  <si>
+    <t>Elevation – 30 degrees</t>
+  </si>
+  <si>
+    <t>Slant Range – 652.5km</t>
+  </si>
+  <si>
+    <t>Weather – Clear Sky</t>
+  </si>
+  <si>
+    <t>Demodulation Method – AFSK</t>
+  </si>
+  <si>
+    <t>Cable Length – 20m</t>
+  </si>
+  <si>
+    <t>Antenna Type (TX) – Cross Yagi</t>
+  </si>
+  <si>
+    <t>Antenna Type – Dipole or 2 quarter length monopole</t>
+  </si>
+  <si>
+    <t>Transmitter System (Ground Station)</t>
+  </si>
+  <si>
+    <t>Ground Station Transmitter Power Output</t>
+  </si>
+  <si>
+    <t>100 W</t>
+  </si>
+  <si>
+    <t>20 dBW</t>
+  </si>
+  <si>
+    <t>Ground Station Total Transmission Line Losses</t>
+  </si>
+  <si>
+    <t>3.4dB</t>
+  </si>
+  <si>
+    <t>Ground Station Antenna Gain</t>
+  </si>
+  <si>
+    <t>18.9dBi</t>
+  </si>
+  <si>
+    <t>Ground Station ERIP</t>
+  </si>
+  <si>
+    <t>35.5dBW</t>
+  </si>
+  <si>
+    <t>Down Link Path</t>
+  </si>
+  <si>
+    <t>Free-Space Path Loss</t>
+  </si>
+  <si>
+    <t>132 DB</t>
+  </si>
+  <si>
+    <r>
+      <t>Satellite Antenna Pointing Loss (10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> °)</t>
+    </r>
+  </si>
+  <si>
+    <t>10.6 dB</t>
+  </si>
+  <si>
+    <t>Ground Station Antenna Pointing Loss (10°)</t>
+  </si>
+  <si>
+    <t>2.7 dB</t>
+  </si>
+  <si>
+    <t>Satellite Transmission Line Losses</t>
+  </si>
+  <si>
+    <t>0.5 dB</t>
+  </si>
+  <si>
+    <t>Atmospheric Loss (30°)</t>
+  </si>
+  <si>
+    <t>0.4 dB</t>
+  </si>
+  <si>
+    <t>Ionspheric Loss</t>
+  </si>
+  <si>
+    <t>Rain Loss</t>
+  </si>
+  <si>
+    <t>Total Loss</t>
+  </si>
+  <si>
+    <t>146.6dB</t>
+  </si>
+  <si>
+    <t>Receiver System (on SnapSat)</t>
+  </si>
+  <si>
+    <t>Antenna Gain</t>
+  </si>
+  <si>
+    <t>2.7 dBi</t>
+  </si>
+  <si>
+    <t>Effective Noise Temperature at Space (350K/Day)</t>
+  </si>
+  <si>
+    <t>1345K</t>
+  </si>
+  <si>
+    <r>
+      <t>Figure of Merrit (G/T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>-28.6 dB/K</t>
+  </si>
+  <si>
+    <t>Carrier-to-Thermal-Noise Ratio (C/T)</t>
+  </si>
+  <si>
+    <t>-136.6 dB</t>
+  </si>
+  <si>
+    <t>Boltzmann’s constant (K)</t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>228.6 dBW/K/Hz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Carrier-to-Noise Density Ratio C/N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>o</t>
+    </r>
+  </si>
+  <si>
+    <t>88.9 dBHz</t>
+  </si>
+  <si>
+    <t>Modulation Process</t>
+  </si>
+  <si>
+    <t>System Desired Data Rate</t>
+  </si>
+  <si>
+    <t>1200 bps</t>
+  </si>
+  <si>
+    <t>Demodulation Method Selected</t>
+  </si>
+  <si>
+    <t>AFSK</t>
+  </si>
+  <si>
+    <t>System Allowed or Specified Bit-Error-Rate</t>
+  </si>
+  <si>
+    <t>Demodulator Implementation Loss</t>
+  </si>
+  <si>
+    <t>2 dB</t>
+  </si>
+  <si>
+    <t>Link Performance</t>
+  </si>
+  <si>
+    <r>
+      <t>Required E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>/N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>o</t>
+    </r>
+  </si>
+  <si>
+    <t>56.1 dB</t>
+  </si>
+  <si>
+    <r>
+      <t>Threshold E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>/N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>o</t>
+    </r>
+  </si>
+  <si>
+    <t>23.2 dB</t>
+  </si>
+  <si>
+    <t>System Link Margin</t>
+  </si>
+  <si>
+    <t>32.9 dB</t>
+  </si>
+  <si>
+    <t>Transmitter - SnapSat</t>
+  </si>
+  <si>
+    <t>Receiver - Ground Station</t>
+  </si>
+  <si>
+    <t>Antenna Type (TX) – Quarter length</t>
+  </si>
+  <si>
+    <t>Antenna Type –  Cross Yagi</t>
+  </si>
+  <si>
+    <t>Transmitter System (SnapSat)</t>
+  </si>
+  <si>
+    <t>Satellite Transmitter Power Output</t>
+  </si>
+  <si>
+    <t>0.5W</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.01 dBW</t>
+  </si>
+  <si>
+    <t>Satellite Total Transmission Line Losses</t>
+  </si>
+  <si>
+    <t>Satellite Antenna Gain</t>
+  </si>
+  <si>
+    <t>Satellite ERIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.81 dBW</t>
+  </si>
+  <si>
+    <t>Receiver System (Ground Station)</t>
+  </si>
+  <si>
+    <t>14.4 dBi</t>
+  </si>
+  <si>
+    <t>610.1K</t>
+  </si>
+  <si>
+    <t>13.5 dB/K</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -160.71 dB</t>
+  </si>
+  <si>
+    <t>67.89 dBHz</t>
+  </si>
+  <si>
+    <t>9600 bps</t>
+  </si>
+  <si>
+    <t>26.07 dB</t>
+  </si>
+  <si>
+    <t>10.5 dB</t>
+  </si>
+  <si>
+    <t>15.56 dB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,6 +1438,33 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1222,7 +1613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -2069,6 +2460,67 @@
       <bottom style="double">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2088,7 +2540,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2307,12 +2759,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2321,10 +2767,322 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2335,312 +3093,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2683,6 +3135,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2701,35 +3183,113 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2740,113 +3300,56 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -3176,50 +3679,50 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6328125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="8" customWidth="1"/>
     <col min="16" max="16" width="15" style="8" customWidth="1"/>
-    <col min="17" max="17" width="16.1796875" style="8" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" style="8" customWidth="1"/>
-    <col min="19" max="19" width="27.453125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" style="54" customWidth="1"/>
-    <col min="21" max="21" width="12.81640625" style="54" customWidth="1"/>
-    <col min="22" max="24" width="9.1796875" style="54"/>
-    <col min="25" max="16384" width="9.1796875" style="2"/>
+    <col min="17" max="17" width="16.1640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="8" customWidth="1"/>
+    <col min="19" max="19" width="27.5" style="8" customWidth="1"/>
+    <col min="20" max="20" width="13.5" style="54" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" style="54" customWidth="1"/>
+    <col min="22" max="24" width="9.1640625" style="54"/>
+    <col min="25" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="165"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
@@ -3250,21 +3753,21 @@
       <c r="AP1" s="56"/>
       <c r="AQ1" s="56"/>
     </row>
-    <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
+    <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168"/>
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
       <c r="S2" s="55"/>
@@ -3295,21 +3798,21 @@
       <c r="AP2" s="56"/>
       <c r="AQ2" s="56"/>
     </row>
-    <row r="3" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="129"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
+    <row r="3" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="171"/>
       <c r="Q3" s="55"/>
       <c r="R3" s="55"/>
       <c r="S3" s="55"/>
@@ -3340,23 +3843,23 @@
       <c r="AP3" s="56"/>
       <c r="AQ3" s="56"/>
     </row>
-    <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="155" t="s">
+    <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="156"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="133"/>
       <c r="Q4" s="55"/>
       <c r="R4" s="55"/>
       <c r="S4" s="55"/>
@@ -3389,21 +3892,21 @@
       <c r="AP4" s="56"/>
       <c r="AQ4" s="56"/>
     </row>
-    <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="158"/>
+    <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="135"/>
       <c r="Q5" s="55"/>
       <c r="R5" s="55"/>
       <c r="S5" s="55"/>
@@ -3436,21 +3939,21 @@
       <c r="AP5" s="56"/>
       <c r="AQ5" s="56"/>
     </row>
-    <row r="6" spans="1:43" s="21" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="157"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="158"/>
+    <row r="6" spans="1:43" s="21" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="134"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="135"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="55"/>
@@ -3483,23 +3986,23 @@
       <c r="AP6" s="57"/>
       <c r="AQ6" s="57"/>
     </row>
-    <row r="7" spans="1:43" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="149" t="s">
+    <row r="7" spans="1:43" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="151"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="185"/>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="58"/>
@@ -3530,7 +4033,7 @@
       <c r="AP7" s="56"/>
       <c r="AQ7" s="56"/>
     </row>
-    <row r="8" spans="1:43" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>109</v>
       </c>
@@ -3543,16 +4046,16 @@
       <c r="D8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
       <c r="Q8" s="55"/>
       <c r="R8" s="55"/>
       <c r="S8" s="55"/>
@@ -3583,21 +4086,21 @@
       <c r="AP8" s="56"/>
       <c r="AQ8" s="56"/>
     </row>
-    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="138"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="168"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="168"/>
-      <c r="M9" s="168"/>
-      <c r="N9" s="168"/>
+    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="178"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
       <c r="Q9" s="55"/>
       <c r="R9" s="55"/>
       <c r="S9" s="55"/>
@@ -3628,21 +4131,21 @@
       <c r="AP9" s="56"/>
       <c r="AQ9" s="56"/>
     </row>
-    <row r="10" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="139"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="169"/>
+    <row r="10" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="179"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
       <c r="Q10" s="55"/>
       <c r="R10" s="55"/>
       <c r="S10" s="55"/>
@@ -3671,23 +4174,23 @@
       <c r="AP10" s="56"/>
       <c r="AQ10" s="56"/>
     </row>
-    <row r="11" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="152" t="s">
+    <row r="11" spans="1:43" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="154"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="103"/>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="58"/>
@@ -3720,7 +4223,7 @@
       <c r="AP11" s="56"/>
       <c r="AQ11" s="56"/>
     </row>
-    <row r="12" spans="1:43" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
         <v>82</v>
       </c>
@@ -3739,14 +4242,14 @@
       <c r="F12" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="146"/>
       <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
@@ -3777,21 +4280,21 @@
       <c r="AP12" s="56"/>
       <c r="AQ12" s="56"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A13" s="145"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="171"/>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A13" s="120"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
       <c r="Q13" s="55"/>
       <c r="R13" s="55"/>
       <c r="S13" s="55"/>
@@ -3822,21 +4325,21 @@
       <c r="AP13" s="56"/>
       <c r="AQ13" s="56"/>
     </row>
-    <row r="14" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="146"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="172"/>
-      <c r="N14" s="172"/>
+    <row r="14" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="129"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
@@ -3867,23 +4370,23 @@
       <c r="AP14" s="56"/>
       <c r="AQ14" s="56"/>
     </row>
-    <row r="15" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="191" t="s">
+    <row r="15" spans="1:43" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="154"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="103"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="58"/>
@@ -3914,35 +4417,35 @@
       <c r="AP15" s="56"/>
       <c r="AQ15" s="56"/>
     </row>
-    <row r="16" spans="1:43" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="159" t="s">
+    <row r="16" spans="1:43" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="162" t="s">
+      <c r="C16" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="164" t="s">
+      <c r="D16" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="165" t="s">
+      <c r="E16" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="177" t="s">
+      <c r="F16" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="178"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="120" t="s">
+      <c r="G16" s="155"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="181"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="158"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
@@ -3971,12 +4474,12 @@
       <c r="AP16" s="56"/>
       <c r="AQ16" s="56"/>
     </row>
-    <row r="17" spans="1:43" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="160"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="166"/>
+    <row r="17" spans="1:43" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="137"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="145"/>
       <c r="F17" s="47" t="s">
         <v>12</v>
       </c>
@@ -3998,8 +4501,8 @@
       <c r="L17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="M17" s="182"/>
-      <c r="N17" s="183"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="160"/>
       <c r="Q17" s="55"/>
       <c r="R17" s="55"/>
       <c r="S17" s="55"/>
@@ -4028,21 +4531,21 @@
       <c r="AP17" s="56"/>
       <c r="AQ17" s="56"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A18" s="97"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="183"/>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="160"/>
       <c r="Q18" s="55"/>
       <c r="R18" s="55"/>
       <c r="S18" s="55"/>
@@ -4071,21 +4574,21 @@
       <c r="AP18" s="56"/>
       <c r="AQ18" s="56"/>
     </row>
-    <row r="19" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="98"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="184"/>
-      <c r="N19" s="185"/>
+    <row r="19" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="162"/>
       <c r="Q19" s="55"/>
       <c r="R19" s="55"/>
       <c r="S19" s="55"/>
@@ -4114,23 +4617,23 @@
       <c r="AP19" s="56"/>
       <c r="AQ19" s="56"/>
     </row>
-    <row r="20" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="191" t="s">
+    <row r="20" spans="1:43" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="154"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="103"/>
       <c r="O20" s="43"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="58"/>
@@ -4161,7 +4664,7 @@
       <c r="AP20" s="56"/>
       <c r="AQ20" s="56"/>
     </row>
-    <row r="21" spans="1:43" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:43" ht="31" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>82</v>
       </c>
@@ -4177,15 +4680,15 @@
       <c r="E21" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="113"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="108"/>
       <c r="Q21" s="55"/>
       <c r="R21" s="55"/>
       <c r="S21" s="55"/>
@@ -4214,185 +4717,185 @@
       <c r="AP21" s="56"/>
       <c r="AQ21" s="56"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A22" s="97"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="195"/>
-      <c r="G22" s="195"/>
-      <c r="H22" s="195"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="195"/>
-      <c r="K22" s="195"/>
-      <c r="L22" s="195"/>
-      <c r="M22" s="195"/>
-      <c r="N22" s="116"/>
-    </row>
-    <row r="23" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="98"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="119"/>
-    </row>
-    <row r="24" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="191" t="s">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="110"/>
+    </row>
+    <row r="23" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="112"/>
+    </row>
+    <row r="24" spans="1:43" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="154"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="103"/>
       <c r="O24" s="43"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="43"/>
       <c r="S24" s="43"/>
     </row>
-    <row r="25" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="132" t="s">
+    <row r="25" spans="1:43" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="142"/>
-      <c r="N25" s="142"/>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A26" s="133"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A27" s="97"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-    </row>
-    <row r="28" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="98"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="144"/>
-    </row>
-    <row r="29" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="191" t="s">
+      <c r="C25" s="180"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="180"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A26" s="173"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A27" s="95"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+    </row>
+    <row r="28" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="96"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="182"/>
+    </row>
+    <row r="29" spans="1:43" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="154"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="103"/>
       <c r="O29" s="43"/>
       <c r="P29" s="43"/>
       <c r="Q29" s="43"/>
       <c r="R29" s="43"/>
       <c r="S29" s="43"/>
     </row>
-    <row r="30" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="132" t="s">
+    <row r="30" spans="1:43" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="134" t="s">
+      <c r="C30" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="136" t="s">
+      <c r="D30" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="105" t="s">
+      <c r="E30" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="106"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="108" t="s">
+      <c r="F30" s="192"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="113"/>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A31" s="133"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="137"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="196"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="108"/>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A31" s="173"/>
+      <c r="B31" s="174"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="177"/>
       <c r="E31" s="48" t="s">
         <v>6</v>
       </c>
@@ -4414,89 +4917,89 @@
       <c r="K31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="114"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="116"/>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A32" s="103"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="116"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="119"/>
-    </row>
-    <row r="34" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="198" t="s">
+      <c r="L31" s="188"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="110"/>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A32" s="118"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="188"/>
+      <c r="M32" s="189"/>
+      <c r="N32" s="110"/>
+    </row>
+    <row r="33" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="119"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="119"/>
+      <c r="L33" s="190"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="112"/>
+    </row>
+    <row r="34" spans="1:19" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="199"/>
-      <c r="C34" s="199"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="199"/>
-      <c r="F34" s="199"/>
-      <c r="G34" s="199"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="199"/>
-      <c r="K34" s="199"/>
-      <c r="L34" s="199"/>
-      <c r="M34" s="199"/>
-      <c r="N34" s="200"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="117"/>
       <c r="O34" s="43"/>
       <c r="P34" s="43"/>
       <c r="Q34" s="43"/>
       <c r="R34" s="43"/>
       <c r="S34" s="43"/>
     </row>
-    <row r="35" spans="1:19" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="95" t="s">
+    <row r="35" spans="1:19" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="188" t="s">
+      <c r="B35" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="120" t="s">
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="K35" s="121"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="122"/>
-    </row>
-    <row r="36" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="96"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="100"/>
+    </row>
+    <row r="36" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="198"/>
       <c r="B36" s="47" t="s">
         <v>91</v>
       </c>
@@ -4537,62 +5040,62 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="97"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="196"/>
-      <c r="M37" s="103"/>
-      <c r="N37" s="103"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="98"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="197"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-    </row>
-    <row r="39" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="191" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="95"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="118"/>
+      <c r="N37" s="118"/>
+    </row>
+    <row r="38" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="96"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="200"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="119"/>
+      <c r="N38" s="119"/>
+    </row>
+    <row r="39" spans="1:19" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="192"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="192"/>
-      <c r="K39" s="192"/>
-      <c r="L39" s="192"/>
-      <c r="M39" s="192"/>
-      <c r="N39" s="193"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="130"/>
+      <c r="M39" s="130"/>
+      <c r="N39" s="131"/>
       <c r="O39" s="43"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
       <c r="S39" s="43"/>
     </row>
-    <row r="40" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A40" s="68" t="s">
         <v>82</v>
       </c>
@@ -4602,130 +5105,130 @@
       <c r="C40" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="167"/>
-      <c r="M40" s="167"/>
-      <c r="N40" s="167"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="145"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="168"/>
-      <c r="E41" s="168"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="168"/>
-      <c r="K41" s="168"/>
-      <c r="L41" s="168"/>
-      <c r="M41" s="168"/>
-      <c r="N41" s="168"/>
-    </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="146"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="169"/>
-      <c r="G42" s="169"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="169"/>
-      <c r="J42" s="169"/>
-      <c r="K42" s="169"/>
-      <c r="L42" s="169"/>
-      <c r="M42" s="169"/>
-      <c r="N42" s="169"/>
-    </row>
-    <row r="43" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="191" t="s">
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="126"/>
+      <c r="L40" s="126"/>
+      <c r="M40" s="126"/>
+      <c r="N40" s="126"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="120"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="127"/>
+      <c r="N41" s="127"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="129"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="128"/>
+      <c r="M42" s="128"/>
+      <c r="N42" s="128"/>
+    </row>
+    <row r="43" spans="1:19" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
-      <c r="N43" s="154"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="103"/>
       <c r="O43" s="43"/>
       <c r="P43" s="43"/>
       <c r="Q43" s="43"/>
       <c r="R43" s="43"/>
       <c r="S43" s="43"/>
     </row>
-    <row r="44" spans="1:19" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="31" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A44" s="37" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="186"/>
-      <c r="D44" s="186"/>
-      <c r="E44" s="186"/>
-      <c r="F44" s="186"/>
-      <c r="G44" s="186"/>
-      <c r="H44" s="186"/>
-      <c r="I44" s="186"/>
-      <c r="J44" s="186"/>
-      <c r="K44" s="186"/>
-      <c r="L44" s="186"/>
-      <c r="M44" s="186"/>
-      <c r="N44" s="186"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="145"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="187"/>
-      <c r="D45" s="187"/>
-      <c r="E45" s="187"/>
-      <c r="F45" s="187"/>
-      <c r="G45" s="187"/>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
-      <c r="J45" s="187"/>
-      <c r="K45" s="187"/>
-      <c r="L45" s="187"/>
-      <c r="M45" s="187"/>
-      <c r="N45" s="187"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="145"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="187"/>
-      <c r="F46" s="187"/>
-      <c r="G46" s="187"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
-      <c r="J46" s="187"/>
-      <c r="K46" s="187"/>
-      <c r="L46" s="187"/>
-      <c r="M46" s="187"/>
-      <c r="N46" s="187"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="121"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="120"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="122"/>
+      <c r="M45" s="122"/>
+      <c r="N45" s="122"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="120"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="122"/>
+      <c r="N46" s="122"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="R47" s="44"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="59" t="s">
         <v>132</v>
       </c>
@@ -4734,7 +5237,7 @@
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="59" t="s">
         <v>133</v>
       </c>
@@ -4743,30 +5246,30 @@
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="194" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="194"/>
-      <c r="C50" s="194"/>
-      <c r="D50" s="194"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
       <c r="E50" s="60"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="194"/>
-      <c r="B51" s="194"/>
-      <c r="C51" s="194"/>
-      <c r="D51" s="194"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="106"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
       <c r="E51" s="60"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="194"/>
-      <c r="B52" s="194"/>
-      <c r="C52" s="194"/>
-      <c r="D52" s="194"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="106"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
       <c r="E52" s="60"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -4777,20 +5280,73 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="97">
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="L30:N33"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C25:N28"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A4:N6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E8:N10"/>
+    <mergeCell ref="G12:N14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="M16:N19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C44:N46"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D40:N42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A50:D52"/>
     <mergeCell ref="A43:N43"/>
     <mergeCell ref="D22:D23"/>
@@ -4807,73 +5363,20 @@
     <mergeCell ref="A24:N24"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C44:N46"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D40:N42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A4:N6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E8:N10"/>
-    <mergeCell ref="G12:N14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="M16:N19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C25:N28"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="L30:N33"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37:G37 J37 C18:C19 A37:A38 P37:R38 A45:B46 F18">
@@ -4900,11 +5403,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4912,24 +5410,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.36328125" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="5" max="6" width="27.36328125" customWidth="1"/>
+    <col min="1" max="1" width="71.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="5" max="6" width="27.33203125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="34.6328125" customWidth="1"/>
-    <col min="9" max="9" width="42.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="9" width="42.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="203" t="s">
         <v>171</v>
       </c>
@@ -4942,7 +5440,7 @@
       <c r="H1" s="204"/>
       <c r="I1" s="205"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="206"/>
       <c r="B2" s="207"/>
       <c r="C2" s="207"/>
@@ -4953,7 +5451,7 @@
       <c r="H2" s="207"/>
       <c r="I2" s="208"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="209"/>
       <c r="B3" s="210"/>
       <c r="C3" s="210"/>
@@ -4964,7 +5462,7 @@
       <c r="H3" s="210"/>
       <c r="I3" s="211"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="214" t="s">
         <v>139</v>
       </c>
@@ -4974,7 +5472,7 @@
       <c r="E5" s="214"/>
       <c r="F5" s="72"/>
     </row>
-    <row r="6" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="214"/>
       <c r="B6" s="214"/>
       <c r="C6" s="214"/>
@@ -4982,8 +5480,8 @@
       <c r="E6" s="214"/>
       <c r="F6" s="72"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:10" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" ht="62" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>24</v>
       </c>
@@ -5012,7 +5510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="212" t="s">
         <v>17</v>
       </c>
@@ -5025,7 +5523,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="87" t="s">
         <v>169</v>
       </c>
@@ -5042,7 +5540,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
@@ -5057,7 +5555,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="201" t="s">
         <v>0</v>
       </c>
@@ -5070,7 +5568,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>145</v>
       </c>
@@ -5089,7 +5587,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="73" t="s">
         <v>163</v>
       </c>
@@ -5108,7 +5606,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="86" t="s">
         <v>166</v>
       </c>
@@ -5125,7 +5623,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>148</v>
       </c>
@@ -5146,7 +5644,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="201" t="s">
         <v>1</v>
       </c>
@@ -5159,7 +5657,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>150</v>
       </c>
@@ -5176,7 +5674,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
@@ -5197,7 +5695,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>179</v>
       </c>
@@ -5216,7 +5714,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>165</v>
       </c>
@@ -5235,7 +5733,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="85" t="s">
         <v>153</v>
       </c>
@@ -5254,7 +5752,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="201" t="s">
         <v>31</v>
       </c>
@@ -5267,7 +5765,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>162</v>
       </c>
@@ -5284,7 +5782,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>167</v>
       </c>
@@ -5301,7 +5799,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>164</v>
       </c>
@@ -5318,7 +5816,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="201" t="s">
         <v>2</v>
       </c>
@@ -5331,7 +5829,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="83" t="s">
         <v>182</v>
       </c>
@@ -5348,7 +5846,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="83" t="s">
         <v>187</v>
       </c>
@@ -5365,7 +5863,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="83" t="s">
         <v>183</v>
       </c>
@@ -5382,7 +5880,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="201" t="s">
         <v>3</v>
       </c>
@@ -5395,7 +5893,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="82" t="s">
         <v>154</v>
       </c>
@@ -5416,7 +5914,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>161</v>
       </c>
@@ -5431,7 +5929,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="201" t="s">
         <v>35</v>
       </c>
@@ -5441,7 +5939,7 @@
       <c r="E34" s="202"/>
       <c r="F34" s="79"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>159</v>
       </c>
@@ -5457,7 +5955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
@@ -5473,7 +5971,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E37" s="84" t="s">
         <v>155</v>
       </c>
@@ -5496,11 +5994,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5515,16 +6008,16 @@
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.453125" customWidth="1"/>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="8" width="16.36328125" customWidth="1"/>
-    <col min="9" max="9" width="33.453125" customWidth="1"/>
+    <col min="5" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="203" t="s">
         <v>18</v>
       </c>
@@ -5537,7 +6030,7 @@
       <c r="H1" s="204"/>
       <c r="I1" s="205"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="206"/>
       <c r="B2" s="207"/>
       <c r="C2" s="207"/>
@@ -5548,7 +6041,7 @@
       <c r="H2" s="207"/>
       <c r="I2" s="208"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="206"/>
       <c r="B3" s="207"/>
       <c r="C3" s="207"/>
@@ -5559,7 +6052,7 @@
       <c r="H3" s="207"/>
       <c r="I3" s="208"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="209"/>
       <c r="B4" s="210"/>
       <c r="C4" s="210"/>
@@ -5570,7 +6063,7 @@
       <c r="H4" s="210"/>
       <c r="I4" s="211"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="214" t="s">
         <v>48</v>
       </c>
@@ -5583,7 +6076,7 @@
       <c r="H5" s="214"/>
       <c r="I5" s="214"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="214"/>
       <c r="B6" s="214"/>
       <c r="C6" s="214"/>
@@ -5594,7 +6087,7 @@
       <c r="H6" s="214"/>
       <c r="I6" s="214"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5605,30 +6098,30 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="222" t="s">
+    <row r="8" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="218" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="226" t="s">
+      <c r="C8" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="227" t="s">
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="229" t="s">
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="215" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="223"/>
-      <c r="B9" s="225"/>
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="219"/>
+      <c r="B9" s="221"/>
       <c r="C9" s="31" t="s">
         <v>32</v>
       </c>
@@ -5647,22 +6140,22 @@
       <c r="H9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="230"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="228" t="s">
+      <c r="I9" s="216"/>
+    </row>
+    <row r="10" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="228"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="228"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="228"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -5693,7 +6186,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5704,7 +6197,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5715,20 +6208,20 @@
       <c r="H13" s="1"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="221" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="221"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="221"/>
-      <c r="F14" s="221"/>
-      <c r="G14" s="221"/>
-      <c r="H14" s="221"/>
+      <c r="B14" s="217"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="217"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -5759,7 +6252,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5770,20 +6263,20 @@
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="221" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="221"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="221"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="217"/>
+      <c r="F17" s="217"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="217"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>62</v>
       </c>
@@ -5814,7 +6307,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5825,20 +6318,20 @@
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="221" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="221"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="221"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="221"/>
+      <c r="B20" s="217"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="217"/>
+      <c r="F20" s="217"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="217"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5849,7 +6342,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5860,20 +6353,20 @@
       <c r="H22" s="1"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="221" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="221"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="221"/>
-      <c r="E23" s="221"/>
-      <c r="F23" s="221"/>
-      <c r="G23" s="221"/>
-      <c r="H23" s="221"/>
+      <c r="B23" s="217"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="217"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5884,7 +6377,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5895,20 +6388,20 @@
       <c r="H25" s="1"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="221" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="221"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="221"/>
-      <c r="E26" s="221"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
+      <c r="B26" s="217"/>
+      <c r="C26" s="217"/>
+      <c r="D26" s="217"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="217"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5919,7 +6412,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5930,20 +6423,20 @@
       <c r="H28" s="1"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="221" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="221"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="221"/>
-      <c r="E29" s="221"/>
-      <c r="F29" s="221"/>
-      <c r="G29" s="221"/>
-      <c r="H29" s="221"/>
+      <c r="B29" s="217"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="217"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5954,7 +6447,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5965,7 +6458,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5976,78 +6469,79 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="218" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="228" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="219"/>
-      <c r="C33" s="219"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="220"/>
+      <c r="B33" s="229"/>
+      <c r="C33" s="229"/>
+      <c r="D33" s="229"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="230"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="218" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="228" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="219"/>
-      <c r="C34" s="219"/>
-      <c r="D34" s="219"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="220"/>
+      <c r="B34" s="229"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="229"/>
+      <c r="E34" s="229"/>
+      <c r="F34" s="230"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="215" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="225" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="216"/>
-      <c r="C35" s="216"/>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="217"/>
+      <c r="B35" s="226"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="227"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="215" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="216"/>
-      <c r="C36" s="216"/>
-      <c r="D36" s="216"/>
-      <c r="E36" s="216"/>
-      <c r="F36" s="217"/>
+      <c r="B36" s="226"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="227"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="215" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="216"/>
-      <c r="C37" s="216"/>
-      <c r="D37" s="216"/>
-      <c r="E37" s="216"/>
-      <c r="F37" s="217"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="226"/>
+      <c r="D37" s="226"/>
+      <c r="E37" s="226"/>
+      <c r="F37" s="227"/>
       <c r="G37" s="7"/>
       <c r="H37" s="14"/>
       <c r="I37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A5:I6"/>
-    <mergeCell ref="A1:I4"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -6056,19 +6550,13 @@
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A5:I6"/>
+    <mergeCell ref="A1:I4"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6081,55 +6569,55 @@
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="125"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="128"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="129"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="165"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="168"/>
+    </row>
+    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="171"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="214" t="s">
         <v>23</v>
       </c>
@@ -6144,7 +6632,7 @@
       <c r="J5" s="214"/>
       <c r="K5" s="214"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="214"/>
       <c r="B6" s="214"/>
       <c r="C6" s="214"/>
@@ -6157,7 +6645,7 @@
       <c r="J6" s="214"/>
       <c r="K6" s="214"/>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -6170,122 +6658,122 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="237"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="234" t="s">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="264"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="235"/>
-      <c r="I8" s="235"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="236"/>
-    </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="240" t="s">
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="263"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="241"/>
-      <c r="C9" s="242"/>
-      <c r="D9" s="243">
+      <c r="B9" s="244"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="249">
         <v>380</v>
       </c>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="245"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="240" t="s">
+      <c r="E9" s="250"/>
+      <c r="F9" s="250"/>
+      <c r="G9" s="250"/>
+      <c r="H9" s="250"/>
+      <c r="I9" s="250"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="251"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="241"/>
-      <c r="C10" s="242"/>
-      <c r="D10" s="243">
+      <c r="B10" s="244"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="249">
         <v>35</v>
       </c>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="245"/>
-    </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="240" t="s">
+      <c r="E10" s="250"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="250"/>
+      <c r="H10" s="250"/>
+      <c r="I10" s="250"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="251"/>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="241"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="243" t="s">
+      <c r="B11" s="244"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="249" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="245"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="240" t="s">
+      <c r="E11" s="250"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="250"/>
+      <c r="I11" s="250"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="251"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="241"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="243">
+      <c r="B12" s="244"/>
+      <c r="C12" s="245"/>
+      <c r="D12" s="249">
         <v>95</v>
       </c>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="244"/>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="245"/>
-    </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="240" t="s">
+      <c r="E12" s="250"/>
+      <c r="F12" s="250"/>
+      <c r="G12" s="250"/>
+      <c r="H12" s="250"/>
+      <c r="I12" s="250"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="251"/>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="241"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="243" t="s">
+      <c r="B13" s="244"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="249" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="244"/>
-      <c r="H13" s="244"/>
-      <c r="I13" s="244"/>
-      <c r="J13" s="244"/>
-      <c r="K13" s="245"/>
-    </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="267" t="s">
+      <c r="E13" s="250"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="250"/>
+      <c r="H13" s="250"/>
+      <c r="I13" s="250"/>
+      <c r="J13" s="250"/>
+      <c r="K13" s="251"/>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="246" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="268"/>
-      <c r="C14" s="269"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="247"/>
-      <c r="F14" s="247"/>
-      <c r="G14" s="247"/>
-      <c r="H14" s="247"/>
-      <c r="I14" s="247"/>
-      <c r="J14" s="247"/>
-      <c r="K14" s="248"/>
-    </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="247"/>
+      <c r="C14" s="248"/>
+      <c r="D14" s="252"/>
+      <c r="E14" s="253"/>
+      <c r="F14" s="253"/>
+      <c r="G14" s="253"/>
+      <c r="H14" s="253"/>
+      <c r="I14" s="253"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="254"/>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
@@ -6298,59 +6786,59 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="265"/>
-      <c r="B17" s="266"/>
-      <c r="C17" s="266"/>
-      <c r="D17" s="253" t="s">
+    <row r="16" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="241"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="259" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="253"/>
-      <c r="F17" s="253"/>
-      <c r="G17" s="253"/>
-      <c r="H17" s="253"/>
-      <c r="I17" s="253"/>
-      <c r="J17" s="253"/>
-      <c r="K17" s="254"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="255" t="s">
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="259"/>
+      <c r="K17" s="260"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="231" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="257" t="s">
+      <c r="B18" s="233" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="259" t="s">
+      <c r="C18" s="235" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="261" t="s">
+      <c r="D18" s="237" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="261" t="s">
+      <c r="E18" s="237" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="263"/>
-      <c r="G18" s="263"/>
-      <c r="H18" s="249"/>
-      <c r="I18" s="249"/>
-      <c r="J18" s="249"/>
-      <c r="K18" s="251"/>
-    </row>
-    <row r="19" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="256"/>
-      <c r="B19" s="258"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="262"/>
-      <c r="E19" s="262"/>
-      <c r="F19" s="264"/>
-      <c r="G19" s="264"/>
-      <c r="H19" s="250"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="252"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="239"/>
+      <c r="G18" s="239"/>
+      <c r="H18" s="255"/>
+      <c r="I18" s="255"/>
+      <c r="J18" s="255"/>
+      <c r="K18" s="257"/>
+    </row>
+    <row r="19" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="232"/>
+      <c r="B19" s="234"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="240"/>
+      <c r="G19" s="240"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="256"/>
+      <c r="K19" s="258"/>
+    </row>
+    <row r="20" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>62</v>
       </c>
@@ -6373,7 +6861,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>65</v>
       </c>
@@ -6396,7 +6884,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>69</v>
       </c>
@@ -6419,7 +6907,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -6432,7 +6920,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -6445,7 +6933,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -6458,7 +6946,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -6471,7 +6959,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -6484,7 +6972,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -6497,7 +6985,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -6510,7 +6998,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6523,7 +7011,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6536,12 +7024,12 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="231" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="267" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="232"/>
-      <c r="C32" s="233"/>
+      <c r="B32" s="268"/>
+      <c r="C32" s="269"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -6551,12 +7039,12 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="231" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="267" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="232"/>
-      <c r="C33" s="233"/>
+      <c r="B33" s="268"/>
+      <c r="C33" s="269"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -6566,12 +7054,12 @@
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="231" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="267" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="232"/>
-      <c r="C34" s="233"/>
+      <c r="B34" s="268"/>
+      <c r="C34" s="269"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -6581,12 +7069,12 @@
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="231" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="267" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="232"/>
-      <c r="C35" s="233"/>
+      <c r="B35" s="268"/>
+      <c r="C35" s="269"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -6596,12 +7084,12 @@
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="231" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="267" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="232"/>
-      <c r="C36" s="233"/>
+      <c r="B36" s="268"/>
+      <c r="C36" s="269"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -6613,6 +7101,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="D17:K17"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="A5:K6"/>
     <mergeCell ref="A18:A19"/>
@@ -6629,236 +7135,927 @@
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="125"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="128"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="129"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="131"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="165"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="168"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="171"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="71" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="71"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="71" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="71"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="71" t="s">
         <v>143</v>
       </c>
     </row>
+    <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="270" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="271"/>
+      <c r="C15" s="272"/>
+    </row>
+    <row r="16" spans="1:13" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="273" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="270" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="272"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="274" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="275" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="276"/>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="274" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="277" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="278"/>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="274" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="277" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="278"/>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="273" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="279" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="280"/>
+    </row>
+    <row r="21" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="270" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="271"/>
+      <c r="C21" s="272"/>
+    </row>
+    <row r="22" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="275" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="276"/>
+      <c r="C22" s="281" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="277"/>
+      <c r="B23" s="278"/>
+      <c r="C23" s="281" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="277" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="278"/>
+      <c r="C24" s="281" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="277" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="278"/>
+      <c r="C25" s="281" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="279" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="280"/>
+      <c r="C26" s="281" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="270" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="271"/>
+      <c r="C27" s="272"/>
+    </row>
+    <row r="28" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="275" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="276"/>
+      <c r="C28" s="281" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="277" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="278"/>
+      <c r="C29" s="281" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="277" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="278"/>
+      <c r="C30" s="281" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="277" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="278"/>
+      <c r="C31" s="281" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="277" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="278"/>
+      <c r="C32" s="281" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="277" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="278"/>
+      <c r="C33" s="281" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="277" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="278"/>
+      <c r="C34" s="282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="279" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="280"/>
+      <c r="C35" s="281" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="270" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="271"/>
+      <c r="C36" s="272"/>
+    </row>
+    <row r="37" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="275" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" s="276"/>
+      <c r="C37" s="281" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="277" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="278"/>
+      <c r="C38" s="281" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="277" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" s="278"/>
+      <c r="C39" s="281" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="277" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="278"/>
+      <c r="C40" s="281" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="59" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="277" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="278"/>
+      <c r="C41" s="281" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="279" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="280"/>
+      <c r="C42" s="281" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="270" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" s="271"/>
+      <c r="C43" s="272"/>
+    </row>
+    <row r="44" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="275" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" s="276"/>
+      <c r="C44" s="281" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="277" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="278"/>
+      <c r="C45" s="281" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="277" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="278"/>
+      <c r="C46" s="283">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="279" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" s="280"/>
+      <c r="C47" s="281" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="270" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="271"/>
+      <c r="C48" s="272"/>
+    </row>
+    <row r="49" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="275" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="276"/>
+      <c r="C49" s="281" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="277" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="278"/>
+      <c r="C50" s="281" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="284" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="285"/>
+      <c r="C51" s="286" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="38">
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A1:M3"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="125"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="128"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="129"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="131"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="165"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="168"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="171"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="71" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="71"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="71" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="71"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="71" t="s">
         <v>144</v>
       </c>
     </row>
+    <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="270" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="271"/>
+      <c r="C15" s="272"/>
+    </row>
+    <row r="16" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="273" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="270" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="272"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="274" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="275" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="276"/>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="274" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="277" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="278"/>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="274" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="277" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="278"/>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="273" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="279" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="280"/>
+    </row>
+    <row r="21" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="270" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" s="271"/>
+      <c r="C21" s="272"/>
+    </row>
+    <row r="22" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="275" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="276"/>
+      <c r="C22" s="281" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="277"/>
+      <c r="B23" s="278"/>
+      <c r="C23" s="281" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="277" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" s="278"/>
+      <c r="C24" s="281" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="277" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="278"/>
+      <c r="C25" s="281" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="279" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="280"/>
+      <c r="C26" s="281" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="270" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="271"/>
+      <c r="C27" s="272"/>
+    </row>
+    <row r="28" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="275" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="276"/>
+      <c r="C28" s="281" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="277" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="278"/>
+      <c r="C29" s="281" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="277" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="278"/>
+      <c r="C30" s="281" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="277" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="278"/>
+      <c r="C31" s="281" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="277" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="278"/>
+      <c r="C32" s="281" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="277" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="278"/>
+      <c r="C33" s="281" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="277" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="278"/>
+      <c r="C34" s="282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="279" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="280"/>
+      <c r="C35" s="281" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="270" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="271"/>
+      <c r="C36" s="272"/>
+    </row>
+    <row r="37" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="275" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" s="276"/>
+      <c r="C37" s="281" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="277" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="278"/>
+      <c r="C38" s="281" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="277" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" s="278"/>
+      <c r="C39" s="281" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="277" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="278"/>
+      <c r="C40" s="281" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="59" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="277" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="278"/>
+      <c r="C41" s="281" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="279" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="280"/>
+      <c r="C42" s="281" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="270" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" s="271"/>
+      <c r="C43" s="272"/>
+    </row>
+    <row r="44" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="275" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" s="276"/>
+      <c r="C44" s="281" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="277" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="278"/>
+      <c r="C45" s="281" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="277" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="278"/>
+      <c r="C46" s="283">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="279" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" s="280"/>
+      <c r="C47" s="281" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="270" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="271"/>
+      <c r="C48" s="272"/>
+    </row>
+    <row r="49" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="275" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="276"/>
+      <c r="C49" s="281" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="277" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="278"/>
+      <c r="C50" s="281" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="284" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="285"/>
+      <c r="C51" s="286" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="38">
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A1:M3"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Annex 1 SnapSat_Overview_Spreadsheet.xlsx
+++ b/Annex 1 SnapSat_Overview_Spreadsheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasforbutt/AERO3760-Space-Engineering-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\AERO3760-Space-Engineering-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23920" windowHeight="14280" tabRatio="740" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23920" windowHeight="14280" tabRatio="740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CubeSat Design Summary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="283">
   <si>
     <t>Attitude Determination and Control Subsystem</t>
   </si>
@@ -83,31 +83,6 @@
   </si>
   <si>
     <t>Structural Subsystem</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[CubeSat Name]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Mass Budget</t>
-    </r>
   </si>
   <si>
     <r>
@@ -135,81 +110,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[CubeSat Name]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Power Budget</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[CubeSat Name]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Link Budget (Uplink)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[CubeSat Name]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Link Budget (Downlink)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Note: Please indicate all the assumptions that were used in calculating the power budget. Please note that the worst case attitude should be considered for the power generation in the modes that have no attitude control (i.e Safe mode). </t>
   </si>
   <si>
@@ -340,9 +240,6 @@
     <t>Efficiency</t>
   </si>
   <si>
-    <t>Long panels (-X, +X)</t>
-  </si>
-  <si>
     <t>Albedo (%)</t>
   </si>
   <si>
@@ -413,15 +310,6 @@
   </si>
   <si>
     <t>In-House Devleopment</t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>CAD Model</t>
-  </si>
-  <si>
-    <t>Design Estimate</t>
   </si>
   <si>
     <t>On board propulsion</t>
@@ -1286,6 +1174,142 @@
   </si>
   <si>
     <t>15.56 dB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SnapSat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Link Budget (Downlink)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SnapSat</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Link Budget (Uplink)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SnapSat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power Budget</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SnapSat</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mass Budget</t>
+    </r>
+  </si>
+  <si>
+    <t>Chassis</t>
+  </si>
+  <si>
+    <t>Sun Sensors</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>Power Bus</t>
+  </si>
+  <si>
+    <t>Built</t>
+  </si>
+  <si>
+    <t>Iduino DUE Board</t>
+  </si>
+  <si>
+    <t>Memory Storage (SD Card and Reader)</t>
+  </si>
+  <si>
+    <t>Printed Circuit Boards</t>
+  </si>
+  <si>
+    <t>Antennae</t>
+  </si>
+  <si>
+    <t>Transcievers</t>
+  </si>
+  <si>
+    <t>Arducam</t>
   </si>
 </sst>
 </file>
@@ -2759,6 +2783,46 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2767,55 +2831,291 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2835,264 +3135,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3135,52 +3177,124 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3219,15 +3333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3237,68 +3342,29 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3307,48 +3373,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3676,59 +3700,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:B14"/>
+      <selection pane="bottomLeft" sqref="A1:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="43.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="8" customWidth="1"/>
     <col min="16" max="16" width="15" style="8" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="8" customWidth="1"/>
-    <col min="19" max="19" width="27.5" style="8" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="54" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="54" customWidth="1"/>
-    <col min="22" max="24" width="9.1640625" style="54"/>
-    <col min="25" max="16384" width="9.1640625" style="2"/>
+    <col min="17" max="17" width="16.1796875" style="8" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="27.453125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="54" customWidth="1"/>
+    <col min="21" max="21" width="12.81640625" style="54" customWidth="1"/>
+    <col min="22" max="24" width="9.1796875" style="54"/>
+    <col min="25" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="165"/>
+    <row r="1" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="127" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
       <c r="T1" s="56"/>
       <c r="U1" s="56" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="V1" s="56"/>
       <c r="W1" s="56"/>
@@ -3753,27 +3777,27 @@
       <c r="AP1" s="56"/>
       <c r="AQ1" s="56"/>
     </row>
-    <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
+    <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
       <c r="S2" s="55"/>
       <c r="T2" s="56"/>
       <c r="U2" s="56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="V2" s="56"/>
       <c r="W2" s="56"/>
@@ -3798,27 +3822,27 @@
       <c r="AP2" s="56"/>
       <c r="AQ2" s="56"/>
     </row>
-    <row r="3" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="171"/>
+    <row r="3" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="133"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="135"/>
       <c r="Q3" s="55"/>
       <c r="R3" s="55"/>
       <c r="S3" s="55"/>
       <c r="T3" s="56"/>
       <c r="U3" s="56" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="V3" s="56"/>
       <c r="W3" s="56"/>
@@ -3843,32 +3867,32 @@
       <c r="AP3" s="56"/>
       <c r="AQ3" s="56"/>
     </row>
-    <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="132" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="133"/>
+    <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="159" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="160"/>
       <c r="Q4" s="55"/>
       <c r="R4" s="55"/>
       <c r="S4" s="55"/>
       <c r="T4" s="56"/>
       <c r="U4" s="56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="V4" s="56" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="W4" s="56"/>
       <c r="X4" s="56"/>
@@ -3892,29 +3916,29 @@
       <c r="AP4" s="56"/>
       <c r="AQ4" s="56"/>
     </row>
-    <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="135"/>
+    <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="161"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="162"/>
       <c r="Q5" s="55"/>
       <c r="R5" s="55"/>
       <c r="S5" s="55"/>
       <c r="T5" s="56" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="U5" s="56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V5" s="56"/>
       <c r="W5" s="56"/>
@@ -3939,21 +3963,21 @@
       <c r="AP5" s="56"/>
       <c r="AQ5" s="56"/>
     </row>
-    <row r="6" spans="1:43" s="21" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="135"/>
+    <row r="6" spans="1:43" s="21" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="161"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="162"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="55"/>
@@ -3961,7 +3985,7 @@
       <c r="S6" s="55"/>
       <c r="T6" s="57"/>
       <c r="U6" s="57" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="V6" s="57"/>
       <c r="W6" s="57"/>
@@ -3986,23 +4010,23 @@
       <c r="AP6" s="57"/>
       <c r="AQ6" s="57"/>
     </row>
-    <row r="7" spans="1:43" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="183" t="s">
+    <row r="7" spans="1:43" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="185"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="155"/>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="58"/>
@@ -4033,35 +4057,35 @@
       <c r="AP7" s="56"/>
       <c r="AQ7" s="56"/>
     </row>
-    <row r="8" spans="1:43" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
       <c r="Q8" s="55"/>
       <c r="R8" s="55"/>
       <c r="S8" s="55"/>
       <c r="T8" s="56"/>
       <c r="U8" s="56" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V8" s="56"/>
       <c r="W8" s="56"/>
@@ -4086,27 +4110,27 @@
       <c r="AP8" s="56"/>
       <c r="AQ8" s="56"/>
     </row>
-    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="178"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
+    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="142"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="172"/>
       <c r="Q9" s="55"/>
       <c r="R9" s="55"/>
       <c r="S9" s="55"/>
       <c r="T9" s="56"/>
       <c r="U9" s="56" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V9" s="56"/>
       <c r="W9" s="56"/>
@@ -4131,21 +4155,21 @@
       <c r="AP9" s="56"/>
       <c r="AQ9" s="56"/>
     </row>
-    <row r="10" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="179"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
+    <row r="10" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="143"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
       <c r="Q10" s="55"/>
       <c r="R10" s="55"/>
       <c r="S10" s="55"/>
@@ -4174,23 +4198,23 @@
       <c r="AP10" s="56"/>
       <c r="AQ10" s="56"/>
     </row>
-    <row r="11" spans="1:43" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="186" t="s">
+    <row r="11" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="103"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="158"/>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="58"/>
@@ -4198,7 +4222,7 @@
       <c r="S11" s="58"/>
       <c r="T11" s="56"/>
       <c r="U11" s="56" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="V11" s="56"/>
       <c r="W11" s="56"/>
@@ -4223,39 +4247,39 @@
       <c r="AP11" s="56"/>
       <c r="AQ11" s="56"/>
     </row>
-    <row r="12" spans="1:43" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A12" s="42" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
+        <v>37</v>
+      </c>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
       <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
       <c r="T12" s="56"/>
       <c r="U12" s="56" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="V12" s="56"/>
       <c r="W12" s="56"/>
@@ -4280,27 +4304,27 @@
       <c r="AP12" s="56"/>
       <c r="AQ12" s="56"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A13" s="120"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A13" s="149"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
       <c r="Q13" s="55"/>
       <c r="R13" s="55"/>
       <c r="S13" s="55"/>
       <c r="T13" s="56"/>
       <c r="U13" s="56" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V13" s="56"/>
       <c r="W13" s="56"/>
@@ -4325,27 +4349,27 @@
       <c r="AP13" s="56"/>
       <c r="AQ13" s="56"/>
     </row>
-    <row r="14" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
+    <row r="14" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="150"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="176"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
       <c r="T14" s="56"/>
       <c r="U14" s="56" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="V14" s="56"/>
       <c r="W14" s="56"/>
@@ -4370,23 +4394,23 @@
       <c r="AP14" s="56"/>
       <c r="AQ14" s="56"/>
     </row>
-    <row r="15" spans="1:43" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="101" t="s">
+    <row r="15" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="103"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="158"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="58"/>
@@ -4417,35 +4441,35 @@
       <c r="AP15" s="56"/>
       <c r="AQ15" s="56"/>
     </row>
-    <row r="16" spans="1:43" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="136" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="138" t="s">
+    <row r="16" spans="1:43" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="163" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="140" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="142" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="144" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="154" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="155"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="158"/>
+      <c r="C16" s="166" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="168" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="181" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="182"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="184"/>
+      <c r="N16" s="185"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
@@ -4474,35 +4498,35 @@
       <c r="AP16" s="56"/>
       <c r="AQ16" s="56"/>
     </row>
-    <row r="17" spans="1:43" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="137"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="145"/>
+    <row r="17" spans="1:43" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="164"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="170"/>
       <c r="F17" s="47" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="159"/>
-      <c r="N17" s="160"/>
+        <v>80</v>
+      </c>
+      <c r="M17" s="186"/>
+      <c r="N17" s="187"/>
       <c r="Q17" s="55"/>
       <c r="R17" s="55"/>
       <c r="S17" s="55"/>
@@ -4531,21 +4555,21 @@
       <c r="AP17" s="56"/>
       <c r="AQ17" s="56"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="160"/>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A18" s="107"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="186"/>
+      <c r="N18" s="187"/>
       <c r="Q18" s="55"/>
       <c r="R18" s="55"/>
       <c r="S18" s="55"/>
@@ -4574,21 +4598,21 @@
       <c r="AP18" s="56"/>
       <c r="AQ18" s="56"/>
     </row>
-    <row r="19" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="162"/>
+    <row r="19" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="188"/>
+      <c r="N19" s="189"/>
       <c r="Q19" s="55"/>
       <c r="R19" s="55"/>
       <c r="S19" s="55"/>
@@ -4617,23 +4641,23 @@
       <c r="AP19" s="56"/>
       <c r="AQ19" s="56"/>
     </row>
-    <row r="20" spans="1:43" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="101" t="s">
+    <row r="20" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="103"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="158"/>
       <c r="O20" s="43"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="58"/>
@@ -4664,31 +4688,31 @@
       <c r="AP20" s="56"/>
       <c r="AQ20" s="56"/>
     </row>
-    <row r="21" spans="1:43" ht="31" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B21" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="108"/>
+        <v>112</v>
+      </c>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="111"/>
       <c r="Q21" s="55"/>
       <c r="R21" s="55"/>
       <c r="S21" s="55"/>
@@ -4717,185 +4741,185 @@
       <c r="AP21" s="56"/>
       <c r="AQ21" s="56"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="110"/>
-    </row>
-    <row r="23" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="112"/>
-    </row>
-    <row r="24" spans="1:43" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="101" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="103"/>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A22" s="107"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="201"/>
+      <c r="M22" s="201"/>
+      <c r="N22" s="114"/>
+    </row>
+    <row r="23" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="117"/>
+    </row>
+    <row r="24" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="195" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="158"/>
       <c r="O24" s="43"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="43"/>
       <c r="S24" s="43"/>
     </row>
-    <row r="25" spans="1:43" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="172" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="139" t="s">
+    <row r="25" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="180"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A26" s="173"/>
-      <c r="B26" s="174"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181"/>
-      <c r="N26" s="181"/>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A27" s="95"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="181"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="181"/>
-    </row>
-    <row r="28" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="96"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-    </row>
-    <row r="29" spans="1:43" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="146"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A26" s="137"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="147"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A27" s="107"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
+    </row>
+    <row r="28" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="148"/>
+    </row>
+    <row r="29" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="103"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="158"/>
       <c r="O29" s="43"/>
       <c r="P29" s="43"/>
       <c r="Q29" s="43"/>
       <c r="R29" s="43"/>
       <c r="S29" s="43"/>
     </row>
-    <row r="30" spans="1:43" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="172" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="139" t="s">
+    <row r="30" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="175" t="s">
+      <c r="C30" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="143" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="191" t="s">
+      <c r="D30" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="192"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="194" t="s">
+      <c r="F30" s="122"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="195"/>
-      <c r="J30" s="195"/>
-      <c r="K30" s="196"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="108"/>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A31" s="173"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="177"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="111"/>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A31" s="137"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="141"/>
       <c r="E31" s="48" t="s">
         <v>6</v>
       </c>
@@ -4917,187 +4941,187 @@
       <c r="K31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="188"/>
-      <c r="M31" s="189"/>
-      <c r="N31" s="110"/>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A32" s="118"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="189"/>
-      <c r="N32" s="110"/>
-    </row>
-    <row r="33" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="190"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="112"/>
-    </row>
-    <row r="34" spans="1:19" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="117"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="114"/>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="114"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="106"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="117"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="204" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="205"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="205"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="205"/>
+      <c r="K34" s="205"/>
+      <c r="L34" s="205"/>
+      <c r="M34" s="205"/>
+      <c r="N34" s="206"/>
       <c r="O34" s="43"/>
       <c r="P34" s="43"/>
       <c r="Q34" s="43"/>
       <c r="R34" s="43"/>
       <c r="S34" s="43"/>
     </row>
-    <row r="35" spans="1:19" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="197" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="123" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="98" t="s">
+    <row r="35" spans="1:19" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="198" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="192" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="193"/>
+      <c r="D35" s="193"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="193"/>
+      <c r="G35" s="193"/>
+      <c r="H35" s="193"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="120"/>
+    </row>
+    <row r="36" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="199"/>
+      <c r="B36" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="100"/>
-    </row>
-    <row r="36" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="198"/>
-      <c r="B36" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="J36" s="45" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K36" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="L36" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="N36" s="53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" s="107"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="202"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="108"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="203"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
+    </row>
+    <row r="39" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="M36" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="N36" s="53" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="95"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="199"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="118"/>
-      <c r="N37" s="118"/>
-    </row>
-    <row r="38" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="96"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="200"/>
-      <c r="F38" s="200"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="119"/>
-    </row>
-    <row r="39" spans="1:19" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="101" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="130"/>
-      <c r="N39" s="131"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="196"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="196"/>
+      <c r="M39" s="196"/>
+      <c r="N39" s="197"/>
       <c r="O39" s="43"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
       <c r="S39" s="43"/>
     </row>
-    <row r="40" spans="1:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A40" s="68" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>11</v>
@@ -5105,171 +5129,171 @@
       <c r="C40" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="126"/>
-      <c r="K40" s="126"/>
-      <c r="L40" s="126"/>
-      <c r="M40" s="126"/>
-      <c r="N40" s="126"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="120"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="127"/>
-      <c r="N41" s="127"/>
-    </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="129"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="128"/>
-    </row>
-    <row r="43" spans="1:19" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="102"/>
-      <c r="L43" s="102"/>
-      <c r="M43" s="102"/>
-      <c r="N43" s="103"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="171"/>
+      <c r="K40" s="171"/>
+      <c r="L40" s="171"/>
+      <c r="M40" s="171"/>
+      <c r="N40" s="171"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" s="149"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="172"/>
+      <c r="L41" s="172"/>
+      <c r="M41" s="172"/>
+      <c r="N41" s="172"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="150"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="173"/>
+    </row>
+    <row r="43" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="195" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="157"/>
+      <c r="K43" s="157"/>
+      <c r="L43" s="157"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="158"/>
       <c r="O43" s="43"/>
       <c r="P43" s="43"/>
       <c r="Q43" s="43"/>
       <c r="R43" s="43"/>
       <c r="S43" s="43"/>
     </row>
-    <row r="44" spans="1:19" ht="31" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="44" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A44" s="37" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="121"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="120"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
-      <c r="L45" s="122"/>
-      <c r="M45" s="122"/>
-      <c r="N45" s="122"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="120"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="122"/>
-      <c r="M46" s="122"/>
-      <c r="N46" s="122"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="C44" s="190"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="190"/>
+      <c r="F44" s="190"/>
+      <c r="G44" s="190"/>
+      <c r="H44" s="190"/>
+      <c r="I44" s="190"/>
+      <c r="J44" s="190"/>
+      <c r="K44" s="190"/>
+      <c r="L44" s="190"/>
+      <c r="M44" s="190"/>
+      <c r="N44" s="190"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" s="149"/>
+      <c r="B45" s="180"/>
+      <c r="C45" s="191"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
+      <c r="J45" s="191"/>
+      <c r="K45" s="191"/>
+      <c r="L45" s="191"/>
+      <c r="M45" s="191"/>
+      <c r="N45" s="191"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" s="149"/>
+      <c r="B46" s="180"/>
+      <c r="C46" s="191"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="191"/>
+      <c r="G46" s="191"/>
+      <c r="H46" s="191"/>
+      <c r="I46" s="191"/>
+      <c r="J46" s="191"/>
+      <c r="K46" s="191"/>
+      <c r="L46" s="191"/>
+      <c r="M46" s="191"/>
+      <c r="N46" s="191"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="R47" s="44"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="59" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="59" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B49" s="59"/>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="200" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="200"/>
+      <c r="C50" s="200"/>
+      <c r="D50" s="200"/>
       <c r="E50" s="60"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="106"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="200"/>
+      <c r="B51" s="200"/>
+      <c r="C51" s="200"/>
+      <c r="D51" s="200"/>
       <c r="E51" s="60"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="106"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="200"/>
+      <c r="B52" s="200"/>
+      <c r="C52" s="200"/>
+      <c r="D52" s="200"/>
       <c r="E52" s="60"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -5280,28 +5304,65 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="97">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="L30:N33"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A50:D52"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F21:N23"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C44:N46"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D40:N42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A4:N6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E8:N10"/>
+    <mergeCell ref="G12:N14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="M16:N19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="L18:L19"/>
     <mergeCell ref="A1:N3"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
@@ -5318,65 +5379,28 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A11:N11"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A4:N6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E8:N10"/>
-    <mergeCell ref="G12:N14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="M16:N19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C44:N46"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D40:N42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A50:D52"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F21:N23"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="A29:N29"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="L30:N33"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37:G37 J37 C18:C19 A37:A38 P37:R38 A45:B46 F18">
@@ -5415,120 +5439,120 @@
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="71.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="5" max="6" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="71.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="5" max="6" width="27.36328125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="9" width="42.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="34.6328125" customWidth="1"/>
+    <col min="9" max="9" width="42.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="203" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="205"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="206"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="209"/>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="211"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="214" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="209" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="211"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="212"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="214"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="215"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="217"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="220" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
       <c r="F5" s="72"/>
     </row>
-    <row r="6" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="214"/>
-      <c r="B6" s="214"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
+    <row r="6" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="220"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
       <c r="F6" s="72"/>
     </row>
-    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" ht="62" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:10" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="62" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D8" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>47</v>
-      </c>
       <c r="J8" s="67" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="212" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="213"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
       <c r="F9" s="76"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="87" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C10" s="89"/>
       <c r="D10" s="88">
@@ -5540,9 +5564,9 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5555,22 +5579,22 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="201" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="202"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="202"/>
+      <c r="B12" s="208"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="208"/>
+      <c r="E12" s="208"/>
       <c r="F12" s="79"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5578,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F13" s="80">
         <v>29.95</v>
@@ -5587,12 +5611,12 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="73" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -5606,9 +5630,9 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="86" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5623,19 +5647,19 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F16" s="78">
         <v>0</v>
@@ -5644,22 +5668,22 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="201" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="202"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
       <c r="F17" s="79"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5667,26 +5691,26 @@
         <v>4</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F18" s="78"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <v>4</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F19" s="78">
         <v>52.5</v>
@@ -5695,9 +5719,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="1"/>
@@ -5705,7 +5729,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F20" s="78">
         <v>8.8000000000000007</v>
@@ -5714,9 +5738,9 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B21" s="77"/>
       <c r="C21" s="1"/>
@@ -5724,7 +5748,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F21" s="78">
         <v>26.24</v>
@@ -5733,17 +5757,17 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="85" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="93" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F22" s="1">
         <v>116.65</v>
@@ -5752,22 +5776,22 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="201" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="202"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="207" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="208"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="208"/>
       <c r="F23" s="79"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5782,9 +5806,9 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5799,9 +5823,9 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5816,22 +5840,22 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="201" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="202"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
+      <c r="B27" s="208"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="208"/>
+      <c r="E27" s="208"/>
       <c r="F27" s="79"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="83" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5839,16 +5863,16 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F28" s="78"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="83" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5856,16 +5880,16 @@
         <v>1</v>
       </c>
       <c r="E29" s="94" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F29" s="78"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="83" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5873,35 +5897,35 @@
         <v>1</v>
       </c>
       <c r="E30" s="91" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F30" s="78"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="201" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="202"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="202"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="208"/>
+      <c r="E31" s="208"/>
       <c r="F31" s="79"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="82" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B32" s="77" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C32" s="77" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -5914,9 +5938,9 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5929,19 +5953,19 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="201" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="202"/>
-      <c r="C34" s="202"/>
-      <c r="D34" s="202"/>
-      <c r="E34" s="202"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="207" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="208"/>
+      <c r="C34" s="208"/>
+      <c r="D34" s="208"/>
+      <c r="E34" s="208"/>
       <c r="F34" s="79"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5949,15 +5973,15 @@
         <v>1</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F35" s="78">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5965,15 +5989,15 @@
         <v>1</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F36" s="78">
         <v>14.95</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E37" s="84" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F37" s="78">
         <f>SUM(F10:F36)</f>
@@ -5999,95 +6023,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="5" max="8" width="16.36328125" customWidth="1"/>
+    <col min="9" max="9" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="203" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="205"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="206"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="206"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="208"/>
-    </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="209"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="211"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="214" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="214"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="214"/>
-      <c r="B6" s="214"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-    </row>
-    <row r="7" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="209" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="211"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="212"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="214"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="212"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="214"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="215"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="217"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="220" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="220"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6098,69 +6122,69 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="218" t="s">
+    <row r="8" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="228" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="230" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="232" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="233" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
+      <c r="I8" s="235" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="229"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="220" t="s">
+      <c r="F9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="222" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="222"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="223" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="223"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="215" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="219"/>
-      <c r="B9" s="221"/>
-      <c r="C9" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="216"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="224" t="s">
+      <c r="I9" s="236"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="234" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="224"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="224"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>86</v>
+        <v>276</v>
       </c>
       <c r="C11" s="17">
         <v>150</v>
@@ -6186,153 +6210,159 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="227"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17">
+        <v>30</v>
+      </c>
+      <c r="D13" s="17">
+        <f>C13*0.1</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="17">
+        <f>D13+C13</f>
+        <v>33</v>
+      </c>
+      <c r="F13" s="17">
+        <v>3</v>
+      </c>
+      <c r="G13" s="17">
+        <f>D13*F13</f>
+        <v>9</v>
+      </c>
+      <c r="H13" s="17">
+        <f>E13*F13</f>
+        <v>99</v>
+      </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="217" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="227"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="227"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17">
+        <v>60</v>
+      </c>
+      <c r="D17" s="17">
+        <f>C17*0</f>
         <v>0</v>
       </c>
-      <c r="B14" s="217"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="17">
-        <v>30</v>
-      </c>
-      <c r="D15" s="17">
-        <f>C15*0.1</f>
-        <v>3</v>
-      </c>
-      <c r="E15" s="17">
-        <f>D15+C15</f>
-        <v>33</v>
-      </c>
-      <c r="F15" s="17">
-        <v>3</v>
-      </c>
-      <c r="G15" s="17">
-        <f>D15*F15</f>
-        <v>9</v>
-      </c>
-      <c r="H15" s="17">
-        <f>E15*F15</f>
-        <v>99</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="217" t="s">
+      <c r="E17" s="17">
+        <f>D17+C17</f>
+        <v>60</v>
+      </c>
+      <c r="F17" s="17">
         <v>1</v>
       </c>
-      <c r="B17" s="217"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G17" s="17">
+        <f>D17*F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <f>F17*E17</f>
+        <v>60</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="17">
-        <v>60</v>
-      </c>
-      <c r="D18" s="17">
-        <f>C18*0</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="17">
-        <f>D18+C18</f>
-        <v>60</v>
-      </c>
-      <c r="F18" s="17">
-        <v>1</v>
-      </c>
-      <c r="G18" s="17">
-        <f>D18*F18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="17">
-        <f>F18*E18</f>
-        <v>60</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="217" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="217"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="217"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="217"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="227" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="227"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>279</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -6342,8 +6372,10 @@
       <c r="H21" s="1"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>278</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -6353,21 +6385,23 @@
       <c r="H22" s="1"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="217" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="217"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="217"/>
-      <c r="G23" s="217"/>
-      <c r="H23" s="217"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="227"/>
+      <c r="F23" s="227"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="227"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>280</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -6377,8 +6411,10 @@
       <c r="H24" s="1"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>281</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -6388,23 +6424,27 @@
       <c r="H25" s="1"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="217" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="217"/>
-      <c r="C26" s="217"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="217"/>
+      <c r="B26" s="227"/>
+      <c r="C26" s="227"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="227"/>
+      <c r="F26" s="227"/>
+      <c r="G26" s="227"/>
+      <c r="H26" s="227"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -6412,31 +6452,33 @@
       <c r="H27" s="1"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="217" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="217"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="217"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="227" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="227"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="227"/>
+      <c r="G28" s="227"/>
+      <c r="H28" s="227"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6447,7 +6489,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6458,103 +6500,92 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="224" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="225"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="225"/>
+      <c r="E32" s="225"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="228" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="229"/>
-      <c r="C33" s="229"/>
-      <c r="D33" s="229"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="230"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="224" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="225"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="225"/>
+      <c r="E33" s="225"/>
+      <c r="F33" s="226"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="228" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="229"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="229"/>
-      <c r="E34" s="229"/>
-      <c r="F34" s="230"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="221" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="222"/>
+      <c r="C34" s="222"/>
+      <c r="D34" s="222"/>
+      <c r="E34" s="222"/>
+      <c r="F34" s="223"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="225" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="226"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="226"/>
-      <c r="E35" s="226"/>
-      <c r="F35" s="227"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="221" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="222"/>
+      <c r="C35" s="222"/>
+      <c r="D35" s="222"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="225" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="226"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="226"/>
-      <c r="E36" s="226"/>
-      <c r="F36" s="227"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="222"/>
+      <c r="C36" s="222"/>
+      <c r="D36" s="222"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="225" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="226"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="226"/>
-      <c r="E37" s="226"/>
-      <c r="F37" s="227"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A5:I6"/>
+    <mergeCell ref="A1:I4"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A23:H23"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A5:I6"/>
-    <mergeCell ref="A1:I4"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6566,86 +6597,86 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:C13"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="165"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="168"/>
-    </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="171"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="214" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="214"/>
-      <c r="J5" s="214"/>
-      <c r="K5" s="214"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="214"/>
-      <c r="B6" s="214"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="214"/>
-      <c r="K6" s="214"/>
-    </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="127" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="129"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="132"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="133"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="135"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="220"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="220"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -6658,27 +6689,27 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="264"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="261" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="262"/>
-      <c r="K8" s="263"/>
-    </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="243" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="244"/>
-      <c r="C9" s="245"/>
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="243"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="240" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="242"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="246" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="247"/>
+      <c r="C9" s="248"/>
       <c r="D9" s="249">
         <v>380</v>
       </c>
@@ -6690,12 +6721,12 @@
       <c r="J9" s="250"/>
       <c r="K9" s="251"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="243" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="244"/>
-      <c r="C10" s="245"/>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="246" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="247"/>
+      <c r="C10" s="248"/>
       <c r="D10" s="249">
         <v>35</v>
       </c>
@@ -6707,14 +6738,14 @@
       <c r="J10" s="250"/>
       <c r="K10" s="251"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="243" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="244"/>
-      <c r="C11" s="245"/>
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="246" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="247"/>
+      <c r="C11" s="248"/>
       <c r="D11" s="249" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E11" s="250"/>
       <c r="F11" s="250"/>
@@ -6724,12 +6755,12 @@
       <c r="J11" s="250"/>
       <c r="K11" s="251"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="243" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="244"/>
-      <c r="C12" s="245"/>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="246" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="247"/>
+      <c r="C12" s="248"/>
       <c r="D12" s="249">
         <v>95</v>
       </c>
@@ -6741,14 +6772,14 @@
       <c r="J12" s="250"/>
       <c r="K12" s="251"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="243" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="244"/>
-      <c r="C13" s="245"/>
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="246" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="247"/>
+      <c r="C13" s="248"/>
       <c r="D13" s="249" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E13" s="250"/>
       <c r="F13" s="250"/>
@@ -6758,12 +6789,12 @@
       <c r="J13" s="250"/>
       <c r="K13" s="251"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="246" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="247"/>
-      <c r="C14" s="248"/>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="273" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="274"/>
+      <c r="C14" s="275"/>
       <c r="D14" s="252"/>
       <c r="E14" s="253"/>
       <c r="F14" s="253"/>
@@ -6773,7 +6804,7 @@
       <c r="J14" s="253"/>
       <c r="K14" s="254"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
@@ -6786,13 +6817,13 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="241"/>
-      <c r="B17" s="242"/>
-      <c r="C17" s="242"/>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="271"/>
+      <c r="B17" s="272"/>
+      <c r="C17" s="272"/>
       <c r="D17" s="259" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E17" s="259"/>
       <c r="F17" s="259"/>
@@ -6802,48 +6833,48 @@
       <c r="J17" s="259"/>
       <c r="K17" s="260"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="231" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="233" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="235" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="237" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="237" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="239"/>
-      <c r="G18" s="239"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="261" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="263" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="265" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="267" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="267" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="269"/>
+      <c r="G18" s="269"/>
       <c r="H18" s="255"/>
       <c r="I18" s="255"/>
       <c r="J18" s="255"/>
       <c r="K18" s="257"/>
     </row>
-    <row r="19" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="232"/>
-      <c r="B19" s="234"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="238"/>
-      <c r="E19" s="238"/>
-      <c r="F19" s="240"/>
-      <c r="G19" s="240"/>
+    <row r="19" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="262"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="266"/>
+      <c r="D19" s="268"/>
+      <c r="E19" s="268"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="270"/>
       <c r="H19" s="256"/>
       <c r="I19" s="256"/>
       <c r="J19" s="256"/>
       <c r="K19" s="258"/>
     </row>
-    <row r="20" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C20" s="32">
         <v>1</v>
@@ -6861,12 +6892,12 @@
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21" s="18">
         <v>1</v>
@@ -6884,9 +6915,9 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="17">
         <v>2</v>
@@ -6907,7 +6938,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -6920,7 +6951,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -6933,7 +6964,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -6946,7 +6977,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -6959,7 +6990,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -6972,7 +7003,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -6985,7 +7016,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -6998,7 +7029,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7011,7 +7042,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -7024,12 +7055,12 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="267" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="268"/>
-      <c r="C32" s="269"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="237" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="238"/>
+      <c r="C32" s="239"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -7039,12 +7070,12 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="267" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="268"/>
-      <c r="C33" s="269"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="237" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="238"/>
+      <c r="C33" s="239"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -7054,12 +7085,12 @@
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="267" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="268"/>
-      <c r="C34" s="269"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="237" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="238"/>
+      <c r="C34" s="239"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -7069,12 +7100,12 @@
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="267" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="268"/>
-      <c r="C35" s="269"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="237" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="238"/>
+      <c r="C35" s="239"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -7084,12 +7115,12 @@
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="267" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="268"/>
-      <c r="C36" s="269"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="237" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="238"/>
+      <c r="C36" s="239"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -7101,24 +7132,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="D17:K17"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="A5:K6"/>
     <mergeCell ref="A18:A19"/>
@@ -7135,6 +7148,24 @@
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7147,416 +7178,446 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41.6328125" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="165"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="168"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="171"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="127" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="129"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="133"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="71"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="71"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="71" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="270" t="s">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="284" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="285"/>
+      <c r="C15" s="286"/>
+    </row>
+    <row r="16" spans="1:13" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="284" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="286"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="276" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="277"/>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="278" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="279"/>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="278" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="271"/>
-      <c r="C15" s="272"/>
-    </row>
-    <row r="16" spans="1:13" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="273" t="s">
+      <c r="C19" s="279"/>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="270" t="s">
+      <c r="B20" s="282" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="272"/>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="274" t="s">
+      <c r="C20" s="283"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="284" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="275" t="s">
+      <c r="B21" s="285"/>
+      <c r="C21" s="286"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="276" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="276"/>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="274" t="s">
+      <c r="B22" s="277"/>
+      <c r="C22" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="277" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="278"/>
+      <c r="B23" s="279"/>
+      <c r="C23" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="278"/>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="274" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="278" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="277" t="s">
+      <c r="B24" s="279"/>
+      <c r="C24" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="278"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="273" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="278" t="s">
         <v>198</v>
       </c>
-      <c r="B20" s="279" t="s">
+      <c r="B25" s="279"/>
+      <c r="C25" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="280"/>
-    </row>
-    <row r="21" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="270" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="282" t="s">
         <v>200</v>
       </c>
-      <c r="B21" s="271"/>
-      <c r="C21" s="272"/>
-    </row>
-    <row r="22" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="275" t="s">
+      <c r="B26" s="283"/>
+      <c r="C26" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="B22" s="276"/>
-      <c r="C22" s="281" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="284" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="277"/>
-      <c r="B23" s="278"/>
-      <c r="C23" s="281" t="s">
+      <c r="B27" s="285"/>
+      <c r="C27" s="286"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="276" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="277" t="s">
+      <c r="B28" s="277"/>
+      <c r="C28" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="B24" s="278"/>
-      <c r="C24" s="281" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="278" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="277" t="s">
+      <c r="B29" s="279"/>
+      <c r="C29" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="278"/>
-      <c r="C25" s="281" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="278" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="279" t="s">
+      <c r="B30" s="279"/>
+      <c r="C30" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="B26" s="280"/>
-      <c r="C26" s="281" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="278" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="270" t="s">
+      <c r="B31" s="279"/>
+      <c r="C31" s="97" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="271"/>
-      <c r="C27" s="272"/>
-    </row>
-    <row r="28" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="275" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="278" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="276"/>
-      <c r="C28" s="281" t="s">
+      <c r="B32" s="279"/>
+      <c r="C32" s="97" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="277" t="s">
+    <row r="33" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="278" t="s">
         <v>213</v>
       </c>
-      <c r="B29" s="278"/>
-      <c r="C29" s="281" t="s">
+      <c r="B33" s="279"/>
+      <c r="C33" s="97" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="278" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="277" t="s">
+      <c r="B34" s="279"/>
+      <c r="C34" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="282" t="s">
         <v>215</v>
       </c>
-      <c r="B30" s="278"/>
-      <c r="C30" s="281" t="s">
+      <c r="B35" s="283"/>
+      <c r="C35" s="97" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="277" t="s">
+    <row r="36" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="284" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="278"/>
-      <c r="C31" s="281" t="s">
+      <c r="B36" s="285"/>
+      <c r="C36" s="286"/>
+    </row>
+    <row r="37" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="276" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="277" t="s">
+      <c r="B37" s="277"/>
+      <c r="C37" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="B32" s="278"/>
-      <c r="C32" s="281" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="278" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="277" t="s">
+      <c r="B38" s="279"/>
+      <c r="C38" s="97" t="s">
         <v>221</v>
       </c>
-      <c r="B33" s="278"/>
-      <c r="C33" s="281" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="277" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="278" t="s">
         <v>222</v>
       </c>
-      <c r="B34" s="278"/>
-      <c r="C34" s="282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="279" t="s">
+      <c r="B39" s="279"/>
+      <c r="C39" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="B35" s="280"/>
-      <c r="C35" s="281" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="278" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="270" t="s">
+      <c r="B40" s="279"/>
+      <c r="C40" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="271"/>
-      <c r="C36" s="272"/>
-    </row>
-    <row r="37" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="275" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="278" t="s">
         <v>226</v>
       </c>
-      <c r="B37" s="276"/>
-      <c r="C37" s="281" t="s">
+      <c r="B41" s="279"/>
+      <c r="C41" s="97" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="277" t="s">
+    <row r="42" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="282" t="s">
         <v>228</v>
       </c>
-      <c r="B38" s="278"/>
-      <c r="C38" s="281" t="s">
+      <c r="B42" s="283"/>
+      <c r="C42" s="97" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="277" t="s">
+    <row r="43" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="284" t="s">
         <v>230</v>
       </c>
-      <c r="B39" s="278"/>
-      <c r="C39" s="281" t="s">
+      <c r="B43" s="285"/>
+      <c r="C43" s="286"/>
+    </row>
+    <row r="44" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="276" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="277" t="s">
+      <c r="B44" s="277"/>
+      <c r="C44" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="B40" s="278"/>
-      <c r="C40" s="281" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="278" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="59" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="277" t="s">
+      <c r="B45" s="279"/>
+      <c r="C45" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="B41" s="278"/>
-      <c r="C41" s="281" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="278" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="279" t="s">
+      <c r="B46" s="279"/>
+      <c r="C46" s="99">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="282" t="s">
         <v>236</v>
       </c>
-      <c r="B42" s="280"/>
-      <c r="C42" s="281" t="s">
+      <c r="B47" s="283"/>
+      <c r="C47" s="97" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="270" t="s">
+    <row r="48" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="284" t="s">
         <v>238</v>
       </c>
-      <c r="B43" s="271"/>
-      <c r="C43" s="272"/>
-    </row>
-    <row r="44" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="275" t="s">
+      <c r="B48" s="285"/>
+      <c r="C48" s="286"/>
+    </row>
+    <row r="49" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="276" t="s">
         <v>239</v>
       </c>
-      <c r="B44" s="276"/>
-      <c r="C44" s="281" t="s">
+      <c r="B49" s="277"/>
+      <c r="C49" s="97" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="277" t="s">
+    <row r="50" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="278" t="s">
         <v>241</v>
       </c>
-      <c r="B45" s="278"/>
-      <c r="C45" s="281" t="s">
+      <c r="B50" s="279"/>
+      <c r="C50" s="97" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="277" t="s">
+    <row r="51" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="280" t="s">
         <v>243</v>
       </c>
-      <c r="B46" s="278"/>
-      <c r="C46" s="283">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="279" t="s">
+      <c r="B51" s="281"/>
+      <c r="C51" s="100" t="s">
         <v>244</v>
-      </c>
-      <c r="B47" s="280"/>
-      <c r="C47" s="281" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="270" t="s">
-        <v>246</v>
-      </c>
-      <c r="B48" s="271"/>
-      <c r="C48" s="272"/>
-    </row>
-    <row r="49" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="275" t="s">
-        <v>247</v>
-      </c>
-      <c r="B49" s="276"/>
-      <c r="C49" s="281" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="277" t="s">
-        <v>249</v>
-      </c>
-      <c r="B50" s="278"/>
-      <c r="C50" s="281" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="284" t="s">
-        <v>251</v>
-      </c>
-      <c r="B51" s="285"/>
-      <c r="C51" s="286" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:C43"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
@@ -7565,36 +7626,6 @@
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
@@ -7607,416 +7638,446 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41.6328125" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="165"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="168"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="171"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="127" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="129"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="133"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="71"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="71"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="71" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="270" t="s">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="284" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="285"/>
+      <c r="C15" s="286"/>
+    </row>
+    <row r="16" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="284" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="286"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="276" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="277"/>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="278" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="279"/>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="278" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="271"/>
-      <c r="C15" s="272"/>
-    </row>
-    <row r="16" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="273" t="s">
+      <c r="C19" s="279"/>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="282" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="283"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="284" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="285"/>
+      <c r="C21" s="286"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="276" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="277"/>
+      <c r="C22" s="97" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="278"/>
+      <c r="B23" s="279"/>
+      <c r="C23" s="97" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="278" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="270" t="s">
+      <c r="B24" s="279"/>
+      <c r="C24" s="97" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="278" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="272"/>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="274" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" s="275" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="276"/>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="274" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="277" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="278"/>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="274" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="277" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="278"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="273" t="s">
+      <c r="B25" s="279"/>
+      <c r="C25" s="97" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="282" t="s">
         <v>255</v>
       </c>
-      <c r="B20" s="279" t="s">
+      <c r="B26" s="283"/>
+      <c r="C26" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C20" s="280"/>
-    </row>
-    <row r="21" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="270" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="284" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="285"/>
+      <c r="C27" s="286"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="276" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="277"/>
+      <c r="C28" s="97" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="278" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="279"/>
+      <c r="C29" s="97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="278" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="279"/>
+      <c r="C30" s="97" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="278" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="279"/>
+      <c r="C31" s="97" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="278" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="279"/>
+      <c r="C32" s="97" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="278" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="279"/>
+      <c r="C33" s="97" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="278" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="279"/>
+      <c r="C34" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="282" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="283"/>
+      <c r="C35" s="97" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="284" t="s">
         <v>257</v>
       </c>
-      <c r="B21" s="271"/>
-      <c r="C21" s="272"/>
-    </row>
-    <row r="22" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="275" t="s">
+      <c r="B36" s="285"/>
+      <c r="C36" s="286"/>
+    </row>
+    <row r="37" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="276" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="277"/>
+      <c r="C37" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="B22" s="276"/>
-      <c r="C22" s="281" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="278" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="279"/>
+      <c r="C38" s="97" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="277"/>
-      <c r="B23" s="278"/>
-      <c r="C23" s="281" t="s">
+    <row r="39" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="278" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="279"/>
+      <c r="C39" s="97" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="277" t="s">
+    <row r="40" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="278" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="279"/>
+      <c r="C40" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="B24" s="278"/>
-      <c r="C24" s="281" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="277" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="278" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="279"/>
+      <c r="C41" s="97" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="282" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="283"/>
+      <c r="C42" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="B25" s="278"/>
-      <c r="C25" s="281" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="279" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="284" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="285"/>
+      <c r="C43" s="286"/>
+    </row>
+    <row r="44" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="276" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" s="277"/>
+      <c r="C44" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="B26" s="280"/>
-      <c r="C26" s="281" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="278" t="s">
+        <v>233</v>
+      </c>
+      <c r="B45" s="279"/>
+      <c r="C45" s="97" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="278" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" s="279"/>
+      <c r="C46" s="99">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="282" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" s="283"/>
+      <c r="C47" s="97" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" s="285"/>
+      <c r="C48" s="286"/>
+    </row>
+    <row r="49" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="276" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="277"/>
+      <c r="C49" s="97" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="270" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" s="271"/>
-      <c r="C27" s="272"/>
-    </row>
-    <row r="28" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="275" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" s="276"/>
-      <c r="C28" s="281" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="277" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="278"/>
-      <c r="C29" s="281" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="277" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="278"/>
-      <c r="C30" s="281" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="277" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" s="278"/>
-      <c r="C31" s="281" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="277" t="s">
-        <v>219</v>
-      </c>
-      <c r="B32" s="278"/>
-      <c r="C32" s="281" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="277" t="s">
-        <v>221</v>
-      </c>
-      <c r="B33" s="278"/>
-      <c r="C33" s="281" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="277" t="s">
-        <v>222</v>
-      </c>
-      <c r="B34" s="278"/>
-      <c r="C34" s="282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="279" t="s">
-        <v>223</v>
-      </c>
-      <c r="B35" s="280"/>
-      <c r="C35" s="281" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="270" t="s">
+    <row r="50" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="278" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="279"/>
+      <c r="C50" s="97" t="s">
         <v>265</v>
       </c>
-      <c r="B36" s="271"/>
-      <c r="C36" s="272"/>
-    </row>
-    <row r="37" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="275" t="s">
-        <v>226</v>
-      </c>
-      <c r="B37" s="276"/>
-      <c r="C37" s="281" t="s">
+    </row>
+    <row r="51" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="280" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" s="281"/>
+      <c r="C51" s="100" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="277" t="s">
-        <v>228</v>
-      </c>
-      <c r="B38" s="278"/>
-      <c r="C38" s="281" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="277" t="s">
-        <v>230</v>
-      </c>
-      <c r="B39" s="278"/>
-      <c r="C39" s="281" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="61" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="277" t="s">
-        <v>232</v>
-      </c>
-      <c r="B40" s="278"/>
-      <c r="C40" s="281" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="59" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="277" t="s">
-        <v>234</v>
-      </c>
-      <c r="B41" s="278"/>
-      <c r="C41" s="281" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="279" t="s">
-        <v>236</v>
-      </c>
-      <c r="B42" s="280"/>
-      <c r="C42" s="281" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="270" t="s">
-        <v>238</v>
-      </c>
-      <c r="B43" s="271"/>
-      <c r="C43" s="272"/>
-    </row>
-    <row r="44" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="275" t="s">
-        <v>239</v>
-      </c>
-      <c r="B44" s="276"/>
-      <c r="C44" s="281" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="277" t="s">
-        <v>241</v>
-      </c>
-      <c r="B45" s="278"/>
-      <c r="C45" s="281" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="277" t="s">
-        <v>243</v>
-      </c>
-      <c r="B46" s="278"/>
-      <c r="C46" s="283">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="279" t="s">
-        <v>244</v>
-      </c>
-      <c r="B47" s="280"/>
-      <c r="C47" s="281" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="270" t="s">
-        <v>246</v>
-      </c>
-      <c r="B48" s="271"/>
-      <c r="C48" s="272"/>
-    </row>
-    <row r="49" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="275" t="s">
-        <v>247</v>
-      </c>
-      <c r="B49" s="276"/>
-      <c r="C49" s="281" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="277" t="s">
-        <v>249</v>
-      </c>
-      <c r="B50" s="278"/>
-      <c r="C50" s="281" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="284" t="s">
-        <v>251</v>
-      </c>
-      <c r="B51" s="285"/>
-      <c r="C51" s="286" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:C43"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
@@ -8025,36 +8086,6 @@
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
